--- a/biology/Biochimie/Liste_des_cancérogènes_du_groupe_2B_du_CIRC/Liste_des_cancérogènes_du_groupe_2B_du_CIRC.xlsx
+++ b/biology/Biochimie/Liste_des_cancérogènes_du_groupe_2B_du_CIRC/Liste_des_cancérogènes_du_groupe_2B_du_CIRC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2B_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2B_du_CIRC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cancérogènes du groupe 2B du CIRC référence les agents classés comme peut-être cancérogènes, parfois appelés cancérogènes possibles, pour l’Homme par le Centre international de recherche sur le cancer (CIRC).
-Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru[1].
+Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2B_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2B_du_CIRC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Classification par le CIRC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories :
 Catégorie 1: cancérogène certains pour l'homme.
 Catégorie 2A : cancérogène probable pour l'homme.
 Catégorie 2B : cancérogène possible pour l'homme.
 Catégorie 3 : inclassable quant à sa cancérogénicité pour l'homme.
-Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019[3].</t>
+Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2B_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_2B_du_CIRC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,38 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2B_du_CIRC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_2B_du_CIRC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Agents</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Substances
-Mélanges
-Expositions professionnelles et autres</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
